--- a/utils/service-test-suite/src/test/resources/soap-data.xlsx
+++ b/utils/service-test-suite/src/test/resources/soap-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\somnath\temp\utilities\service-test-suite\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somnath\Documents\git-ws\mywork\utils\service-test-suite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BD56A-2D9F-433C-8903-09BE59A3237B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="27800" windowHeight="14630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soap-data" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>endpoint</t>
   </si>
@@ -33,84 +34,28 @@
     <t>request</t>
   </si>
   <si>
-    <t>https://customer-webservice-sap.cfcp.isus.emc.com:443/customerservice</t>
-  </si>
-  <si>
-    <t>aicuser</t>
-  </si>
-  <si>
-    <t>&lt;v1:CustomerValidationRequest xmlns:v1=""http://emc.com/it/enterprise/contract/CustomerCreditHoldService/v1"" xmlns:v11=""http://emc.com/it/enterprise/data/v1"" xmlns:v12=""http://emc.com/it/enterprise/msg/v1""&gt;
-  &lt;v11:CustomerNumber&gt;?&lt;/v11:CustomerNumber&gt;
-  &lt;v11:ItemNumber&gt;?&lt;/v11:ItemNumber&gt;
-&lt;/v1:CustomerValidationRequest&gt;</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
     <t>SOAP001</t>
   </si>
   <si>
-    <t>SOAP002</t>
+    <t>&lt;v1:CustomerValidationRequest xmlns:v1=""http://test.org/it/enterprise/contract/CustomerCreditHoldService/v1"" xmlns:v11=""http://test.org/it/enterprise/data/v1"" xmlns:v12=""http://test.org/it/enterprise/msg/v1""&gt;
+  &lt;v11:CustomerNumber&gt;?&lt;/v11:CustomerNumber&gt;
+  &lt;v11:ItemNumber&gt;?&lt;/v11:ItemNumber&gt;
+&lt;/v1:CustomerValidationRequest&gt;</t>
   </si>
   <si>
-    <t>aic_user</t>
+    <t>https://myorg-test-svc.test.org:443/customerservice</t>
   </si>
   <si>
-    <t>@1cnu5eR</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt; &lt;nslt1:CreateOrUpdateFRRequest xmlns:nslt1="urn:PegaRULES:SOAP:EMC_IMSFW_SFDC:Services"&gt; &lt;SFDC&gt; &lt;ActualProblem&gt;Please update the Actual Problem field below, capturing the summary of the customer's issue. This field must be updated prior to the SR being Closed.&lt;/ActualProblem&gt; &lt;CaseNumber&gt;500f100000XG9ygAAD&lt;/CaseNumber&gt; &lt;ClosedDate&gt;2017-08-14T16:43:53Z&lt;/ClosedDate&gt; &lt;CreatedDate&gt;2017-08-08T15:50:20.000Z&lt;/CreatedDate&gt; &lt;Description&gt;There is hard disk failure in the array. Disk 0-4-4 .. Soon will upload he SP collect from the array.&lt;/Description&gt; &lt;ORCLNextCustomerContact&gt;2017-08-10T19:00:00Z&lt;/ORCLNextCustomerContact&gt; &lt;ORCLOracleCreatedOn&gt;2017-08-08T15:50:24.000Z&lt;/ORCLOracleCreatedOn&gt; &lt;ORCLOracleGroup&gt;Atos France ASP&lt;/ORCLOracleGroup&gt; &lt;ORCLProductName&gt;VNX5700&lt;/ORCLProductName&gt; &lt;ORCLSerialNumber&gt;CKM00130500120&lt;/ORCLSerialNumber&gt; &lt;ORCLServiceRequestNumber&gt;87945000&lt;/ORCLServiceRequestNumber&gt; &lt;ORCLVersionNumber&gt;10&lt;/ORCLVersionNumber&gt; &lt;Origin&gt;Employee Web&lt;/Origin&gt; &lt;Owner&gt;00Gj0000000OxusEAC&lt;/Owner&gt; &lt;Priority&gt;S3&lt;/Priority&gt; &lt;ProblemCode&gt;Corrective Maintenance&lt;/ProblemCode&gt; &lt;ReOpen&gt;false&lt;/ReOpen&gt; &lt;ResolutionCode&gt;Replace&lt;/ResolutionCode&gt; &lt;ServiceRequestAge&gt;6 Days, 0 Hour, 53 Minutes&lt;/ServiceRequestAge&gt; &lt;SRType&gt;Hardware&lt;/SRType&gt; &lt;Status&gt;Closed&lt;/Status&gt; &lt;Subject&gt;Disk failure in the array&lt;/Subject&gt; &lt;SuppliedEmail&gt;storage@connectis-mc.comcsint01&lt;/SuppliedEmail&gt; &lt;SuppliedName&gt;Storage Connectis&lt;/SuppliedName&gt; &lt;SuppliedPhone&gt;0&lt;/SuppliedPhone&gt; &lt;TimeInCurrentStatus&gt;238 Days, 16 Hours, 23 Minutes&lt;/TimeInCurrentStatus&gt; &lt;PegaTurnOverTime&gt;2017-08-10T11:00:00.000Z&lt;/PegaTurnOverTime&gt; &lt;EliteFlag&gt;Strategic&lt;/EliteFlag&gt; &lt;FederalStrategy&gt;Unrestricted&lt;/FederalStrategy&gt; &lt;Channel&gt;Employee Web&lt;/Channel&gt; &lt;EntitlementBypass&gt;false&lt;/EntitlementBypass&gt; &lt;SiteNumber&gt;12823918&lt;/SiteNumber&gt; &lt;ItemInstance&gt;112048427&lt;/ItemInstance&gt; &lt;PreferredLanguage&gt;en_US&lt;/PreferredLanguage&gt; &lt;SiteCountry&gt;FRANCE&lt;/SiteCountry&gt; &lt;SiteName&gt;COLT Telecom AG c/o EMC Managed Service&lt;/SiteName&gt; &lt;CurrentImpact&gt;false&lt;/CurrentImpact&gt; &lt;SRHealthStage&gt;Normal&lt;/SRHealthStage&gt; &lt;ProductFamily&gt;VNX/VNXe Family&lt;/ProductFamily&gt; &lt;ORCLOracleGroupID&gt;100011964&lt;/ORCLOracleGroupID&gt; &lt;SRHighestHealthStage&gt;Normal&lt;/SRHighestHealthStage&gt; &lt;SitePreferredLanguage&gt;FRENCH&lt;/SitePreferredLanguage&gt; &lt;SiteTimezone&gt;Central European Summer Time (Europe/Paris)&lt;/SiteTimezone&gt; &lt;DSEEnabled&gt;false&lt;/DSEEnabled&gt; &lt;SFDCCaseNumber&gt;08210970&lt;/SFDCCaseNumber&gt; &lt;MUPIntEntityID&gt;1110738385&lt;/MUPIntEntityID&gt; &lt;ContactID&gt;003j0000012bZguAAE&lt;/ContactID&gt; &lt;BillingStreet&gt;11 AVENUE DU CAP HORN&lt;/BillingStreet&gt; &lt;BillingCity&gt;LES ULIS&lt;/BillingCity&gt; &lt;BillingPostalCode&gt;91940&lt;/BillingPostalCode&gt; &lt;BillingCountry&gt;FRANCE&lt;/BillingCountry&gt; &lt;LastNoteUpdate&gt;2017-08-14 16:43:33Z - Customer viewable (Published);CN10081836::Debrief done:;nitish&lt;/LastNoteUpdate&gt; &lt;SLO&gt;2017-08-10T19:00:00Z&lt;/SLO&gt; &lt;FieldAssist&gt;false&lt;/FieldAssist&gt; &lt;OverridePriority&gt;false&lt;/OverridePriority&gt; &lt;SREscalationStatus&gt;Never Escalated&lt;/SREscalationStatus&gt; &lt;/SFDC&gt; &lt;Entitlement&gt; &lt;EntitlementOverride&gt;False&lt;/EntitlementOverride&gt; &lt;EOSLDate&gt;2019-12-31&lt;/EOSLDate&gt; &lt;InstallBaseStatus&gt;Install&lt;/InstallBaseStatus&gt; &lt;/Entitlement&gt; &lt;NCC&gt; &lt;InitialNCC&gt;2017-08-10T11:00:00.000Z&lt;/InitialNCC&gt; &lt;/NCC&gt; &lt;pyID&gt;SR-3887054&lt;/pyID&gt; &lt;/nslt1:CreateOrUpdateFRRequest&gt;</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt; &lt;urn:SwarmAssignmentParseRequest xmlns:urn="urn:PegaRULES:SOAP:SwarmRequest:Services"&gt; &lt;ServiceRequestID&gt;SRD-1689&lt;/ServiceRequestID&gt; &lt;urn:ImmediateAssistance&gt;true&lt;/urn:ImmediateAssistance&gt; &lt;SwarmRequest&gt; &lt;RequestedSkill&gt; &lt;LineItemID&gt;a241k000000D9uhAAC&lt;/LineItemID&gt; &lt;SkillLevel&gt;Auto&lt;/SkillLevel&gt; &lt;SkillID&gt;GS: PowerPath HP-UX Troubleshooting&lt;/SkillID&gt; &lt;SwarmRequestID&gt;a0l1k000000DHwvAAG&lt;/SwarmRequestID&gt; &lt;BusinessUnit&gt;SSG&lt;/BusinessUnit&gt; &lt;CompetencyIdentifier&gt;compt000000000021483&lt;/CompetencyIdentifier&gt; &lt;/RequestedSkill&gt; &lt;/SwarmRequest&gt; &lt;/urn:SwarmAssignmentParseRequest&gt;</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt; &lt;tns:UpsertUserProfile xmlns:tns="urn:PegaRULES:SOAP:EMCFWIMSIntUserProfileService:Services" xmlns:nslt2="urn:PegaRULES:SOAP:EMCFWIMSFWIntUserProfileService:Services" xmlns:ns1="http://schemas.xmlsoap.org/soap/envelope/"&gt; &lt;nslt2:UserProfileUpsertRequest&gt; &lt;UserProfile&gt; &lt;FirstName&gt;Prachi&lt;/FirstName&gt; &lt;LastName&gt;Thube&lt;/LastName&gt; &lt;BadgeID&gt;1098884&lt;/BadgeID&gt; &lt;UserType/&gt; &lt;SFDCID&gt;005f100000Gd3Y1AAJ&lt;/SFDCID&gt; &lt;Active&gt;true&lt;/Active&gt; &lt;Contact&gt; &lt;Email&gt;prachi.thube@emc.com&lt;/Email&gt; &lt;/Contact&gt; &lt;EngineerTaxonomy&gt; &lt;Authorized&gt;false&lt;/Authorized&gt; &lt;BDLEngineerID&gt;1098884&lt;/BDLEngineerID&gt; &lt;EliteEligible&gt;false&lt;/EliteEligible&gt; &lt;SupportCountry/&gt; &lt;SwarmOnly&gt;false&lt;/SwarmOnly&gt; &lt;InSupportCountry/&gt; &lt;RoleName&gt;EMC Project Team&lt;/RoleName&gt; &lt;ManagerBadgeID&gt;1022676&lt;/ManagerBadgeID&gt; &lt;ManagerEmail&gt;harshad.bharsakle@emc.com&lt;/ManagerEmail&gt; &lt;L2&gt;false&lt;/L2&gt; &lt;Coach&gt;false&lt;/Coach&gt; &lt;/EngineerTaxonomy&gt; &lt;MUPDetail&gt; &lt;IntIdentityID&gt;1098884&lt;/IntIdentityID&gt; &lt;/MUPDetail&gt; &lt;/UserProfile&gt; &lt;/nslt2:UserProfileUpsertRequest&gt; &lt;/tns:UpsertUserProfile&gt;</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;ns3:UpsertAgentAssignmentRequest xmlns:ns2="http://emc.com/it/enterprise/data/v1" xmlns:ns1="http://emc.com/it/enterprise/msg/v1" xmlns:ns3="http://emc.com/it/enterprise/contract/PegaSfdcService/v1"&gt; &lt;ns2:PayloadContext&gt; &lt;/ns2:PayloadContext&gt; &lt;ns2:Document&gt; &lt;ns2:pegaDetails&gt; &lt;ns2:pyName/&gt; &lt;ns2:assignmentType&gt;Owner Exception&lt;/ns2:assignmentType&gt; &lt;ns2:engineerSubscript&gt;SRD-1706_1&lt;/ns2:engineerSubscript&gt; &lt;ns2:pyID&gt;SRD-1706&lt;/ns2:pyID&gt; &lt;ns2:caseNumber&gt;87945004&lt;/ns2:caseNumber&gt; &lt;ns2:rejectReason&gt;No suitable Pool found to place the SR.&lt;/ns2:rejectReason&gt; &lt;ns2:skill&gt; &lt;ns2:skillName&gt;GS: NDMP Troubleshooting&lt;/ns2:skillName&gt; &lt;ns2:keyword&gt; &lt;ns2:keywordName&gt;array&lt;/ns2:keywordName&gt; &lt;ns2:keywordWeight&gt;85&lt;/ns2:keywordWeight&gt; &lt;/ns2:keyword&gt; &lt;ns2:totalWeight&gt;85&lt;/ns2:totalWeight&gt; &lt;/ns2:skill&gt;&lt;ns2:skill&gt; &lt;ns2:skillName&gt;GS: NetWorker Devices Troubleshooting&lt;/ns2:skillName&gt; &lt;ns2:keyword&gt; &lt;ns2:keywordName&gt;array&lt;/ns2:keywordName&gt; &lt;ns2:keywordWeight&gt;85&lt;/ns2:keywordWeight&gt; &lt;/ns2:keyword&gt; &lt;ns2:totalWeight&gt;85&lt;/ns2:totalWeight&gt; &lt;/ns2:skill&gt; &lt;ns2:skills&gt;GS NDMP Troubleshooting, GS NetWorker Devices Troubleshooting&lt;/ns2:skills&gt; &lt;ns2:skillLevel&gt;3, 3&lt;/ns2:skillLevel&gt; &lt;/ns2:pegaDetails&gt; &lt;/ns2:Document&gt; &lt;/ns3:UpsertAgentAssignmentRequest&gt;</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;ns3:UpsertQueueAssignmentRequest xmlns:ns2="http://emc.com/it/enterprise/data/v1" xmlns:ns1="http://emc.com/it/enterprise/msg/v1" xmlns:ns3="http://emc.com/it/enterprise/contract/QueueAssignmentService/v1"&gt; &lt;ns2:PayloadContext&gt; &lt;/ns2:PayloadContext&gt; &lt;ns2:Document&gt; &lt;ns2:pegaQueueUpdateRequest&gt; &lt;ns2:owner/&gt; &lt;ns2:pyID&gt;SRD-1706&lt;/ns2:pyID&gt; &lt;ns2:imsPriorityScore&gt;5.00000&lt;/ns2:imsPriorityScore&gt; &lt;/ns2:pegaQueueUpdateRequest&gt; &lt;/ns2:Document&gt; &lt;/ns3:UpsertQueueAssignmentRequest&gt;</t>
-  </si>
-  <si>
-    <t>Pega2SFDCQueueAssignment</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com/prd/IMS/CreateUpdatePBR</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com//prd/IMS/SWARMRequestPBR</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com//prd/IMS/UserProfileService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ssgosgdur.isus.emc.com/pcf/agentassignment-webservice-servicesfdc/pegasfdc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ssgosgdur.isus.emc.com/pcfprd/queueassignment-webservice-servicesfdc/queueAssignment
-</t>
-  </si>
-  <si>
-    <t>SFDC2PegaCreateOrUpdateFR</t>
-  </si>
-  <si>
-    <t>SFDC2PegaSwarmAssignmentParse </t>
-  </si>
-  <si>
-    <t>SFDC2PegaUserProfile</t>
-  </si>
-  <si>
-    <t>Pega2SFDCAgentAssignment</t>
+    <t>testuser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +540,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -615,6 +560,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -685,7 +631,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -777,6 +723,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -812,6 +775,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,24 +967,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="130.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="130.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="68.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1019,130 +999,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="370.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://ssgosghop.isus.emc.com/pcf/agentassignment-webservice-servicesfdc/pegasfdc_x000a_"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://ssgosghop.isus.emc.com/pcfprd/queueassignment-webservice-servicesfdc/queueAssignment_x000a_"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>